--- a/Exc4/roles.xlsx
+++ b/Exc4/roles.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Группа привилегированных пользователей для просмотра секретов</t>
   </si>
   <si>
-    <t xml:space="preserve">resources-watcher</t>
+    <t xml:space="preserve">view (встроенная)</t>
   </si>
   <si>
     <t xml:space="preserve">Просмотр ресурсов кластер</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Группа пользователей у которой есть право только на просмотр ресурсов кластера</t>
   </si>
   <si>
-    <t xml:space="preserve">resources-editor</t>
+    <t xml:space="preserve">edit (встроенная)</t>
   </si>
   <si>
     <t xml:space="preserve">Настройка кластера</t>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
